--- a/biology/Botanique/Serres_municipales_de_Thonon-les-Bains/Serres_municipales_de_Thonon-les-Bains.xlsx
+++ b/biology/Botanique/Serres_municipales_de_Thonon-les-Bains/Serres_municipales_de_Thonon-les-Bains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serres municipales ou espaces verts de Thonon, est une agence d'espace vert et horticole appartenant à la ville de Thonon-les-Bains, en Haute-Savoie, est une entreprise chargée de créer le fleurissement des ronds points, des bordures de routes de la commune, préparation bouquet de mariage…
 L'entreprise comporte une cinquantaine d'employés, et accueille des stagiaires.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1945 : Le service des espaces verts est inexistant, trois employés de la voirie entretiennent les squares de la ville. La surface des espaces verts est d'environ 75 000 m2. Une petite serre d'occasion est achetée et implantée à côté de l'établissement thermal.
 1949 : Une seconde serre, identique à la première est acquise, la surface du terrain de l'unité de production est de 1 600 m2, comprenant les couches, le terrain de culture, les deux serres.
@@ -552,7 +566,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand Prix national des villes fleuries : 1991 et 1994
 Prix du territoria : 2001
